--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.80196649720844</v>
+        <v>96.96007825637888</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.03315353932659</v>
+        <v>132.6650566470787</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.44051572787967</v>
+        <v>120.0036898372933</v>
       </c>
       <c r="AD2" t="n">
-        <v>65801.96649720844</v>
+        <v>96960.07825637888</v>
       </c>
       <c r="AE2" t="n">
-        <v>90033.15353932659</v>
+        <v>132665.0566470787</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.118889255433086e-06</v>
+        <v>6.963186649947168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>81440.51572787967</v>
+        <v>120003.6898372933</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.61984832339586</v>
+        <v>95.7779600825663</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.41572730254387</v>
+        <v>131.047630410296</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.97745438106297</v>
+        <v>118.5406284904766</v>
       </c>
       <c r="AD3" t="n">
-        <v>64619.84832339586</v>
+        <v>95777.96008256629</v>
       </c>
       <c r="AE3" t="n">
-        <v>88415.72730254388</v>
+        <v>131047.630410296</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.283726987759981e-06</v>
+        <v>7.241853015067856e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.730902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>79977.45438106297</v>
+        <v>118540.6284904766</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.28733063504934</v>
+        <v>81.55380717734096</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.85602958104622</v>
+        <v>111.5855168800388</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.85292781052767</v>
+        <v>100.935951760293</v>
       </c>
       <c r="AD2" t="n">
-        <v>61287.33063504934</v>
+        <v>81553.80717734096</v>
       </c>
       <c r="AE2" t="n">
-        <v>83856.02958104621</v>
+        <v>111585.5168800387</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.622309286419607e-06</v>
+        <v>8.004873656027073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>75852.92781052768</v>
+        <v>100935.951760293</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.63904676488927</v>
+        <v>82.89980274846337</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.1277984051993</v>
+        <v>113.4271674015812</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.86226817146054</v>
+        <v>102.6018377408328</v>
       </c>
       <c r="AD2" t="n">
-        <v>55639.04676488927</v>
+        <v>82899.80274846338</v>
       </c>
       <c r="AE2" t="n">
-        <v>76127.7984051993</v>
+        <v>113427.1674015812</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.917537774483834e-06</v>
+        <v>9.305039672897961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.756944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>68862.26817146054</v>
+        <v>102601.8377408328</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.90075442168406</v>
+        <v>86.30530590402944</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.2223666007241</v>
+        <v>118.0867270592202</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.66149512165919</v>
+        <v>106.8166955644813</v>
       </c>
       <c r="AD2" t="n">
-        <v>57900.75442168405</v>
+        <v>86305.30590402943</v>
       </c>
       <c r="AE2" t="n">
-        <v>79222.3666007241</v>
+        <v>118086.7270592202</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.826039663297631e-06</v>
+        <v>8.791996172425778e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>71661.49512165919</v>
+        <v>106816.6955644813</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.01583962050768</v>
+        <v>80.62122906319314</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.22105183138366</v>
+        <v>110.3095223618196</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.99223565662325</v>
+        <v>99.78173636802281</v>
       </c>
       <c r="AD2" t="n">
-        <v>63015.83962050769</v>
+        <v>80621.22906319314</v>
       </c>
       <c r="AE2" t="n">
-        <v>86221.05183138367</v>
+        <v>110309.5223618196</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837711266015074e-06</v>
+        <v>9.480355368557187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>77992.23565662325</v>
+        <v>99781.7363680228</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.76793801434402</v>
+        <v>93.20971662982024</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.8818619171837</v>
+        <v>127.533646415346</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.68541755177837</v>
+        <v>115.362014196096</v>
       </c>
       <c r="AD2" t="n">
-        <v>62767.93801434402</v>
+        <v>93209.71662982024</v>
       </c>
       <c r="AE2" t="n">
-        <v>85881.86191718371</v>
+        <v>127533.646415346</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.439172289970509e-06</v>
+        <v>7.637512500813714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.678819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>77685.41755177837</v>
+        <v>115362.014196096</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.5327031216793</v>
+        <v>92.97448173715553</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.56000315920896</v>
+        <v>127.2117876573712</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.39427654193304</v>
+        <v>115.0708731862507</v>
       </c>
       <c r="AD3" t="n">
-        <v>62532.7031216793</v>
+        <v>92974.48173715553</v>
       </c>
       <c r="AE3" t="n">
-        <v>85560.00315920897</v>
+        <v>127211.7876573712</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485619561895649e-06</v>
+        <v>7.717424159290775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.626736111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>77394.27654193304</v>
+        <v>115070.8731862507</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.24601414468956</v>
+        <v>87.92784839286085</v>
       </c>
       <c r="AB2" t="n">
-        <v>85.16774265306677</v>
+        <v>120.3067612739608</v>
       </c>
       <c r="AC2" t="n">
-        <v>77.03945282795587</v>
+        <v>108.8248528296054</v>
       </c>
       <c r="AD2" t="n">
-        <v>62246.01414468956</v>
+        <v>87927.84839286085</v>
       </c>
       <c r="AE2" t="n">
-        <v>85167.74265306677</v>
+        <v>120306.7612739608</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.680455751355166e-06</v>
+        <v>9.382724189199977e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>77039.45282795587</v>
+        <v>108824.8528296054</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.95995263703838</v>
+        <v>79.67379698023964</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.03985244438421</v>
+        <v>109.0132039881697</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.21008407076748</v>
+        <v>98.6091368005594</v>
       </c>
       <c r="AD2" t="n">
-        <v>59959.95263703838</v>
+        <v>79673.79698023964</v>
       </c>
       <c r="AE2" t="n">
-        <v>82039.8524443842</v>
+        <v>109013.2039881698</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.698946244803904e-06</v>
+        <v>8.32218296367583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.592013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>74210.08407076748</v>
+        <v>98609.1368005594</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.40469046853428</v>
+        <v>91.32592469543917</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.01660648277065</v>
+        <v>124.9561591836923</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.99817947812268</v>
+        <v>113.0305187283045</v>
       </c>
       <c r="AD2" t="n">
-        <v>61404.69046853427</v>
+        <v>91325.92469543917</v>
       </c>
       <c r="AE2" t="n">
-        <v>84016.60648277066</v>
+        <v>124956.1591836923</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.555035760450907e-06</v>
+        <v>7.943584624127956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>75998.17947812268</v>
+        <v>113030.5187283045</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.62233661906581</v>
+        <v>95.54927173604185</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.41913189845535</v>
+        <v>130.7347289255636</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.98053404711905</v>
+        <v>118.257589884287</v>
       </c>
       <c r="AD2" t="n">
-        <v>64622.33661906581</v>
+        <v>95549.27173604185</v>
       </c>
       <c r="AE2" t="n">
-        <v>88419.13189845535</v>
+        <v>130734.7289255636</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.243763623598492e-06</v>
+        <v>7.214116898832133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.809027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>79980.53404711906</v>
+        <v>118257.589884287</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.15582010447636</v>
+        <v>95.08275522145239</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.78082342193831</v>
+        <v>130.0964204490465</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.40314483572901</v>
+        <v>117.6802006728969</v>
       </c>
       <c r="AD3" t="n">
-        <v>64155.82010447636</v>
+        <v>95082.75522145239</v>
       </c>
       <c r="AE3" t="n">
-        <v>87780.8234219383</v>
+        <v>130096.4204490465</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.316865434201811e-06</v>
+        <v>7.338385131934487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.730902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>79403.14483572901</v>
+        <v>117680.2006728969</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.5488170978392</v>
+        <v>77.85045067471857</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.1090745447466</v>
+        <v>106.5184211325953</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.46357690400687</v>
+        <v>96.3524525192704</v>
       </c>
       <c r="AD2" t="n">
-        <v>58548.81709783921</v>
+        <v>77850.45067471857</v>
       </c>
       <c r="AE2" t="n">
-        <v>80109.0745447466</v>
+        <v>106518.4211325953</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.80865676898632e-06</v>
+        <v>8.671146074743493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.592013888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>72463.57690400687</v>
+        <v>96352.4525192704</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.37941932345927</v>
+        <v>84.04923996731601</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.14080880276632</v>
+        <v>114.9998781140058</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.7785982784531</v>
+        <v>104.0244511501775</v>
       </c>
       <c r="AD2" t="n">
-        <v>56379.41932345927</v>
+        <v>84049.23996731601</v>
       </c>
       <c r="AE2" t="n">
-        <v>77140.80880276632</v>
+        <v>114999.8781140058</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.908059399768998e-06</v>
+        <v>9.156870014424683e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>69778.59827845311</v>
+        <v>104024.4511501775</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.99552101462343</v>
+        <v>81.81064809952954</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.24729808333362</v>
+        <v>111.9369379607988</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.06580156452347</v>
+        <v>101.253833706328</v>
       </c>
       <c r="AD2" t="n">
-        <v>54995.52101462343</v>
+        <v>81810.64809952954</v>
       </c>
       <c r="AE2" t="n">
-        <v>75247.29808333362</v>
+        <v>111936.9379607988</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.870080410835894e-06</v>
+        <v>9.365345230189119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>68065.80156452347</v>
+        <v>101253.833706328</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.58808938912812</v>
+        <v>86.79428963943568</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.26754097691638</v>
+        <v>118.7557761784426</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.22516513633597</v>
+        <v>107.4218915747816</v>
       </c>
       <c r="AD2" t="n">
-        <v>61588.08938912812</v>
+        <v>86794.28963943568</v>
       </c>
       <c r="AE2" t="n">
-        <v>84267.54097691638</v>
+        <v>118755.7761784426</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.379663416510307e-06</v>
+        <v>9.033490790691387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76225.16513633597</v>
+        <v>107421.8915747816</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.68389925468697</v>
+        <v>80.5896920496331</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.03038814492119</v>
+        <v>110.266372028552</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.10608443427112</v>
+        <v>99.74270424200033</v>
       </c>
       <c r="AD2" t="n">
-        <v>60683.89925468697</v>
+        <v>80589.6920496331</v>
       </c>
       <c r="AE2" t="n">
-        <v>83030.38814492119</v>
+        <v>110266.372028552</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.629829536337696e-06</v>
+        <v>8.134427858868127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>75106.08443427112</v>
+        <v>99742.70424200033</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.55462297508823</v>
+        <v>94.24300243776287</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.95823898656444</v>
+        <v>128.947433643125</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.65906670436247</v>
+        <v>116.640871555119</v>
       </c>
       <c r="AD2" t="n">
-        <v>63554.62297508823</v>
+        <v>94243.00243776287</v>
       </c>
       <c r="AE2" t="n">
-        <v>86958.23898656444</v>
+        <v>128947.4336431249</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.358537209860598e-06</v>
+        <v>7.452612903033983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>78659.06670436247</v>
+        <v>116640.8715551191</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.47379838925931</v>
+        <v>94.16217785193398</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.84765122250431</v>
+        <v>128.8368458790648</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.55903328129331</v>
+        <v>116.5408381320499</v>
       </c>
       <c r="AD3" t="n">
-        <v>63473.79838925932</v>
+        <v>94162.17785193397</v>
       </c>
       <c r="AE3" t="n">
-        <v>86847.65122250431</v>
+        <v>128836.8458790648</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.372154673165954e-06</v>
+        <v>7.475897247723412e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.713541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>78559.0332812933</v>
+        <v>116540.8381320499</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.04396697738197</v>
+        <v>102.4578418861745</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.783198675236</v>
+        <v>140.1873393895747</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.59196006485919</v>
+        <v>126.808056472438</v>
       </c>
       <c r="AD2" t="n">
-        <v>78043.96697738198</v>
+        <v>102457.8418861745</v>
       </c>
       <c r="AE2" t="n">
-        <v>106783.198675236</v>
+        <v>140187.3393895747</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.740593605865714e-06</v>
+        <v>8.017814979105133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.074652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>96591.96006485919</v>
+        <v>126808.056472438</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.22338873999637</v>
+        <v>85.27277981066256</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.29556499177468</v>
+        <v>116.67397930644</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.82314615749337</v>
+        <v>105.538778474422</v>
       </c>
       <c r="AD2" t="n">
-        <v>57223.38873999637</v>
+        <v>85272.77981066256</v>
       </c>
       <c r="AE2" t="n">
-        <v>78295.56499177468</v>
+        <v>116673.97930644</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.859748145185734e-06</v>
+        <v>8.953758095101643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>70823.14615749336</v>
+        <v>105538.778474422</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.2539431716412</v>
+        <v>78.76681250801732</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.07385914688889</v>
+        <v>107.7722278199449</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.33628381780471</v>
+        <v>97.4865976561085</v>
       </c>
       <c r="AD2" t="n">
-        <v>59253.94317164121</v>
+        <v>78766.81250801732</v>
       </c>
       <c r="AE2" t="n">
-        <v>81073.85914688889</v>
+        <v>107772.2278199449</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.74857688338778e-06</v>
+        <v>8.482986059196143e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>73336.28381780471</v>
+        <v>97486.5976561085</v>
       </c>
     </row>
   </sheetData>
